--- a/server/841109222-12.xlsx
+++ b/server/841109222-12.xlsx
@@ -1,37 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CCCB23-72E2-450C-BD13-4B41ED75D743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Danh sách" sheetId="1" r:id="rId1"/>
-    <sheet name="Số con điểm" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="Danh sách" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Số con điểm" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
-  <si>
-    <t>Lớp Test</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+  <si>
+    <t>Lớp Web 1</t>
   </si>
   <si>
     <t/>
@@ -40,13 +23,25 @@
     <t>Giảng viên: Nguyễn Thanh Sang</t>
   </si>
   <si>
-    <t>Thông tin thí sinh</t>
+    <t>Sỉ số: 4</t>
+  </si>
+  <si>
+    <t>E-mail: thanhsang@sgu.edu.vn</t>
+  </si>
+  <si>
+    <t>Ngày tạo file: ngày 3 tháng 5, 2023</t>
+  </si>
+  <si>
+    <t>Bài thi</t>
   </si>
   <si>
     <t>Mã số sinh viên</t>
   </si>
   <si>
-    <t>Họ và Tên</t>
+    <t>Họ</t>
+  </si>
+  <si>
+    <t>Tên</t>
   </si>
   <si>
     <t>Ngày sinh</t>
@@ -55,16 +50,16 @@
     <t>Mã ngành</t>
   </si>
   <si>
-    <t>exam 01</t>
-  </si>
-  <si>
-    <t>Khánh Hoàng</t>
-  </si>
-  <si>
-    <t>3121560037</t>
-  </si>
-  <si>
-    <t>Nguyễn Trương Khánh Hòn</t>
+    <t>Web1-test</t>
+  </si>
+  <si>
+    <t>3121560033</t>
+  </si>
+  <si>
+    <t>Nguyễn Trương Khánh</t>
+  </si>
+  <si>
+    <t>Hoàng</t>
   </si>
   <si>
     <t>30/10/2003</t>
@@ -73,57 +68,78 @@
     <t>DKP</t>
   </si>
   <si>
+    <t>10991</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh</t>
+  </si>
+  <si>
+    <t>Sang</t>
+  </si>
+  <si>
+    <t>1/1/1970</t>
+  </si>
+  <si>
     <t>Chưa làm</t>
+  </si>
+  <si>
+    <t>3121410425</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc</t>
+  </si>
+  <si>
+    <t>Sơn</t>
+  </si>
+  <si>
+    <t>DCT</t>
+  </si>
+  <si>
+    <t>123123123</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <color rgb="263895"/>
       <sz val="18"/>
-      <color rgb="FF263895"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
+      <color rgb="808080"/>
       <sz val="9"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
+      <color rgb="FFFFFF"/>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFCC2424"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color rgb="cc2424"/>
     </font>
   </fonts>
   <fills count="3">
@@ -135,11 +151,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF263895"/>
+        <fgColor rgb="263895"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -147,24 +163,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,142 +529,197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" defaultColWidth="20"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7">
         <v>0</v>
       </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    </row>
+    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B9">
-        <f>COUNTIF($A$8:$A$8,"*")</f>
+      <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="B10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:J8" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B7:I11"/>
   <mergeCells count="3">
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>